--- a/trunk/documentation/draft/message/message-list.xlsx
+++ b/trunk/documentation/draft/message/message-list.xlsx
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -713,8 +713,12 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -724,7 +728,9 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -733,11 +739,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="3"/>
@@ -749,7 +753,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="3"/>
@@ -760,9 +764,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -772,35 +774,13 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
